--- a/DTP/kiri9/データ管理/_DTPファイルパス環境設定仕様書.xlsx
+++ b/DTP/kiri9/データ管理/_DTPファイルパス環境設定仕様書.xlsx
@@ -5,15 +5,16 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\【Git】ShimodaPrint\DTP\kiri9\データ管理\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\ShimodaPrint\DTP\kiri9\データ管理\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4C01160-1E8D-4DC4-A4DB-DCCC712CA543}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EA80723-F9A4-4A5F-B106-2444717448F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15960" yWindow="2930" windowWidth="21710" windowHeight="16530" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="概要仕様" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="35">
   <si>
     <t>伝票ＮＯ</t>
   </si>
@@ -174,6 +175,48 @@
     <t>宣言</t>
     <rPh sb="0" eb="2">
       <t>センゲン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>#伝票引用</t>
+    <rPh sb="1" eb="2">
+      <t>デン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ヒョウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>インヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&amp;伝票サーチの伝票番号を</t>
+    <rPh sb="7" eb="8">
+      <t>デン</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ヒョウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>バンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> &amp;subTbx　の［でんひょうNO］を調べて一致すれば、パレット変数に代入する</t>
+    <rPh sb="20" eb="21">
+      <t>シラ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>イッチ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ヘンスウ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>ダイニュウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -515,14 +558,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <cols>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="51.125" customWidth="1"/>
+    <col min="5" max="5" width="51.08203125" customWidth="1"/>
     <col min="6" max="6" width="23.25" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="27.25" bestFit="1" customWidth="1"/>
   </cols>
@@ -922,7 +965,7 @@
         <v>&amp;一時保存 = [一時保存]</v>
       </c>
     </row>
-    <row r="22" spans="2:7" ht="37.5">
+    <row r="22" spans="2:7" ht="36">
       <c r="B22" s="2" t="s">
         <v>21</v>
       </c>
@@ -949,4 +992,35 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62015A22-987A-4CFC-8190-E83FE6995BCC}">
+  <dimension ref="B2:B4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O6" sqref="O6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetData>
+    <row r="2" spans="2:2">
+      <c r="B2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2">
+      <c r="B3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2">
+      <c r="B4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/DTP/kiri9/データ管理/_DTPファイルパス環境設定仕様書.xlsx
+++ b/DTP/kiri9/データ管理/_DTPファイルパス環境設定仕様書.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\ShimodaPrint\DTP\kiri9\データ管理\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\【Git】ShimodaPrint\DTP\kiri9\データ管理\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EA80723-F9A4-4A5F-B106-2444717448F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF8422E9-401D-4DF7-9AF9-D81C26646245}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15960" yWindow="2930" windowWidth="21710" windowHeight="16530" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="概要仕様" sheetId="1" r:id="rId1"/>
@@ -39,9 +39,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="35">
   <si>
-    <t>伝票ＮＯ</t>
-  </si>
-  <si>
     <t>数値</t>
   </si>
   <si>
@@ -179,19 +176,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>#伝票引用</t>
-    <rPh sb="1" eb="2">
-      <t>デン</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ヒョウ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>インヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>&amp;伝票サーチの伝票番号を</t>
     <rPh sb="7" eb="8">
       <t>デン</t>
@@ -205,18 +189,41 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t xml:space="preserve"> &amp;subTbx　の［でんひょうNO］を調べて一致すれば、パレット変数に代入する</t>
-    <rPh sb="20" eb="21">
+    <t>伝票ＮＯ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> &amp;subTbx　の［伝票ＮＯ］を調べて一致すれば、パレット変数に代入する</t>
+    <rPh sb="17" eb="18">
       <t>シラ</t>
     </rPh>
-    <rPh sb="23" eb="25">
+    <rPh sb="20" eb="22">
       <t>イッチ</t>
     </rPh>
+    <rPh sb="30" eb="32">
+      <t>ヘンスウ</t>
+    </rPh>
     <rPh sb="33" eb="35">
-      <t>ヘンスウ</t>
-    </rPh>
-    <rPh sb="36" eb="38">
       <t>ダイニュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>#伝票引用手続き作成</t>
+    <rPh sb="1" eb="2">
+      <t>デン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ヒョウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>インヨウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>テツヅ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>サクセイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -559,13 +566,13 @@
   <dimension ref="A1:S22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="51.08203125" customWidth="1"/>
+    <col min="5" max="5" width="51.125" customWidth="1"/>
     <col min="6" max="6" width="23.25" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="27.25" bestFit="1" customWidth="1"/>
   </cols>
@@ -593,36 +600,36 @@
     </row>
     <row r="3" spans="1:19">
       <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
         <v>22</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>23</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G3" t="s">
         <v>24</v>
       </c>
-      <c r="E3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>25</v>
-      </c>
-      <c r="H3" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:19">
       <c r="B4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>1</v>
-      </c>
       <c r="D4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F4" t="str">
         <f>"var "&amp;C4&amp;" { &amp;"&amp;D4&amp;" }"</f>
@@ -635,13 +642,13 @@
     </row>
     <row r="5" spans="1:19">
       <c r="B5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="D5" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5" t="str">
         <f t="shared" ref="F5:F22" si="0">"var "&amp;C5&amp;" { &amp;"&amp;D5&amp;" }"</f>
@@ -654,13 +661,13 @@
     </row>
     <row r="6" spans="1:19">
       <c r="B6" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F6" t="str">
         <f t="shared" si="0"/>
@@ -673,13 +680,13 @@
     </row>
     <row r="7" spans="1:19">
       <c r="B7" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>5</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>6</v>
       </c>
       <c r="F7" t="str">
         <f t="shared" si="0"/>
@@ -692,13 +699,13 @@
     </row>
     <row r="8" spans="1:19">
       <c r="B8" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F8" t="str">
         <f t="shared" si="0"/>
@@ -711,13 +718,13 @@
     </row>
     <row r="9" spans="1:19">
       <c r="B9" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F9" t="str">
         <f t="shared" si="0"/>
@@ -730,13 +737,13 @@
     </row>
     <row r="10" spans="1:19">
       <c r="B10" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F10" t="str">
         <f t="shared" si="0"/>
@@ -749,13 +756,13 @@
     </row>
     <row r="11" spans="1:19">
       <c r="B11" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F11" t="str">
         <f t="shared" si="0"/>
@@ -768,13 +775,13 @@
     </row>
     <row r="12" spans="1:19">
       <c r="B12" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F12" t="str">
         <f t="shared" si="0"/>
@@ -787,13 +794,13 @@
     </row>
     <row r="13" spans="1:19">
       <c r="B13" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F13" t="str">
         <f t="shared" si="0"/>
@@ -806,13 +813,13 @@
     </row>
     <row r="14" spans="1:19">
       <c r="B14" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F14" t="str">
         <f t="shared" si="0"/>
@@ -825,13 +832,13 @@
     </row>
     <row r="15" spans="1:19">
       <c r="B15" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F15" t="str">
         <f t="shared" si="0"/>
@@ -844,16 +851,16 @@
     </row>
     <row r="16" spans="1:19">
       <c r="B16" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F16" t="str">
         <f t="shared" si="0"/>
@@ -866,16 +873,16 @@
     </row>
     <row r="17" spans="2:7">
       <c r="B17" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F17" t="str">
         <f t="shared" si="0"/>
@@ -888,16 +895,16 @@
     </row>
     <row r="18" spans="2:7">
       <c r="B18" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F18" t="str">
         <f t="shared" si="0"/>
@@ -910,13 +917,13 @@
     </row>
     <row r="19" spans="2:7">
       <c r="B19" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F19" t="str">
         <f t="shared" si="0"/>
@@ -929,13 +936,13 @@
     </row>
     <row r="20" spans="2:7">
       <c r="B20" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F20" t="str">
         <f t="shared" si="0"/>
@@ -948,35 +955,35 @@
     </row>
     <row r="21" spans="2:7">
       <c r="B21" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F21" t="str">
+        <f t="shared" si="0"/>
+        <v>var 文字列 { &amp;一時保存 }</v>
+      </c>
+      <c r="G21" t="str">
+        <f t="shared" si="1"/>
+        <v>&amp;一時保存 = [一時保存]</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" ht="37.5">
+      <c r="B22" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C21" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D21" s="2" t="s">
+      <c r="C22" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D22" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F21" t="str">
-        <f t="shared" si="0"/>
-        <v>var 文字列 { &amp;一時保存 }</v>
-      </c>
-      <c r="G21" t="str">
-        <f t="shared" si="1"/>
-        <v>&amp;一時保存 = [一時保存]</v>
-      </c>
-    </row>
-    <row r="22" spans="2:7" ht="36">
-      <c r="B22" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>21</v>
-      </c>
       <c r="E22" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F22" t="str">
         <f t="shared" si="0"/>
@@ -999,24 +1006,24 @@
   <dimension ref="B2:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O6" sqref="O6"/>
+      <selection activeCell="B2" sqref="B2:B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <sheetData>
     <row r="2" spans="2:2">
       <c r="B2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="2:2">
       <c r="B3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="2:2">
       <c r="B4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
